--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2862981.433317756</v>
+        <v>2855964.418426044</v>
       </c>
     </row>
     <row r="7">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>27.61772289479713</v>
+        <v>237.9332843063845</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -718,7 +718,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.47555601903397</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,16 +825,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>105.9929741495798</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>160.4034471042927</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>66.23188728787731</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,13 +952,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>153.8100533453327</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>57.44045292477223</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>183.1439721715197</v>
+        <v>111.5317316087713</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>156.1271626621473</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>80.60925250737185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>143.2925104849745</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.062370189838192</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>119.9039675276775</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1897,13 +1897,13 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>53.93028217673957</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2241,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>60.82850912881018</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>135.5947476878508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>158.6268703087478</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2955,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>42.40956678326242</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>51.11544999027132</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -3480,7 +3480,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>33.35146980186034</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385022</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,16 +3717,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>101.1634376464998</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>118.2998363122992</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>22.71958750778587</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1606.946621408918</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1237.984104468507</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4366,16 +4366,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4418,22 +4418,22 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>477.919485916526</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>477.919485916526</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>477.919485916526</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>330.0063923341329</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>330.0063923341329</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>161.0065920724653</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124031</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810048</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>108.9687959810048</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>108.9687959810048</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>108.9687959810048</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>108.9687959810048</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y4" t="n">
-        <v>108.9687959810048</v>
+        <v>477.919485916526</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1275.883734065348</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="C5" t="n">
-        <v>1275.883734065348</v>
+        <v>1525.577074624423</v>
       </c>
       <c r="D5" t="n">
-        <v>917.6180354585974</v>
+        <v>1525.577074624423</v>
       </c>
       <c r="E5" t="n">
-        <v>531.8297828603531</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>120.8438780707456</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4600,19 +4600,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.48357412947</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="Y5" t="n">
-        <v>1662.48357412947</v>
+        <v>1894.539591564834</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>438.7118141694738</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C7" t="n">
-        <v>438.7118141694738</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>380.6911546495019</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.7118141694738</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>413.2717739202507</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="C8" t="n">
-        <v>413.2717739202507</v>
+        <v>1335.56455663271</v>
       </c>
       <c r="D8" t="n">
-        <v>413.2717739202507</v>
+        <v>977.29885802596</v>
       </c>
       <c r="E8" t="n">
-        <v>413.2717739202507</v>
+        <v>591.5106054277157</v>
       </c>
       <c r="F8" t="n">
-        <v>406.3262731710473</v>
+        <v>180.5247006381082</v>
       </c>
       <c r="G8" t="n">
-        <v>392.4028691096382</v>
+        <v>166.6012965766991</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834949</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491378</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>1563.476704221264</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>1190.010945960184</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y8" t="n">
-        <v>799.8716139843725</v>
+        <v>1704.527073573122</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>418.7159459272334</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>418.7159459272334</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4992,22 +4992,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>418.7159459272334</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5020,67 +5020,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155902</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514097</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277032</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>816.7950850315617</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1124.115218311523</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>1453.977845975556</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2392.657822921639</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>675.2581065529675</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C13" t="n">
-        <v>675.2581065529675</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D13" t="n">
-        <v>675.2581065529675</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>909.3712637033467</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="W13" t="n">
-        <v>909.3712637033467</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X13" t="n">
-        <v>681.3817128053294</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y13" t="n">
-        <v>675.2581065529675</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,28 +5263,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5296,10 +5296,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507006</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1800.678268171039</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>943.2631727657036</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C16" t="n">
-        <v>822.1480540508779</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1164.055751909234</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>1164.055751909234</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>1164.055751909234</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>1164.055751909234</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y16" t="n">
-        <v>943.2631727657036</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="17">
@@ -5515,16 +5515,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>2786.879505108311</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>3033.644633014775</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>3802.012779407236</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>4131.875407071269</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>4568.699189774859</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1133.446124533523</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>844.0289544965622</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>616.0394035985448</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5834,25 +5834,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1024.771599890052</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4119.662436868821</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>3950.726253940914</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3950.726253940914</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>4637.069157803799</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>4637.069157803799</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>4637.069157803799</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>4347.651987766838</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>4119.662436868821</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>4119.662436868821</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5986,46 +5986,46 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263797</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2525.058920465857</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>3128.721707800139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>3436.0418410801</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>3765.904468744133</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>4045.44453396283</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698577</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014291</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>933.2366688293931</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>643.8194987924326</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>415.8299478944152</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,13 +6214,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6229,10 +6229,10 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3935.472971107276</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3775.243809179248</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3775.243809179248</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4660.934562929845</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>4371.805924143403</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>4117.121435937516</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>4117.121435937516</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>4117.121435937516</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>4117.121435937516</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6454,13 +6454,13 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
@@ -6545,25 +6545,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1663.687808515591</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1943.227873734288</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>588.502779152791</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>588.502779152791</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>438.3861397404553</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>290.4730461580622</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>290.4730461580622</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>290.4730461580622</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0550377060055</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6627,46 +6627,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799322</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471151</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974663</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980059</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585742</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119724</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119724</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119724</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1098.712528333282</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>1098.712528333282</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>809.2953582963212</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>809.2953582963212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>588.502779152791</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,10 +6718,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6779,28 +6779,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>326.2492756170072</v>
+        <v>634.0455001582214</v>
       </c>
       <c r="L33" t="n">
-        <v>940.1463453738959</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>713.5778697504956</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>544.6416868225887</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>986.0022165609664</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>986.0022165609664</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>986.0022165609664</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>765.2096374174363</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,70 +6916,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7004,40 +7004,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4326.074044281177</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>4036.945405494735</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>3782.260917288848</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>3492.843747251887</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="38">
@@ -7162,49 +7162,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7253,22 +7253,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1016.813592216476</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N39" t="n">
-        <v>1346.676219880508</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4334.96385716733</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>4166.027674239424</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>4015.911034827087</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3867.997941244694</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>4437.14914771935</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>4437.14914771935</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>4437.14914771935</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>4334.96385716733</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>4334.96385716733</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>4334.96385716733</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,22 +7396,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514083</v>
@@ -7429,34 +7429,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.989236263797</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>2554.239526509241</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>2801.004654415705</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
-        <v>3569.372800808167</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>3899.235428472199</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>4568.699189774858</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>4773.721670557068</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.6713633309776</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>653.6713633309776</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U43" t="n">
-        <v>1379.421486404065</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V43" t="n">
-        <v>1124.736998198178</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W43" t="n">
-        <v>835.3198281612173</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X43" t="n">
-        <v>835.3198281612173</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3198281612173</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,34 +7639,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7730,22 +7730,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>474.8900731662877</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1088.787142923176</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1396.107276203138</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1725.969903867171</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1475.96719226721</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1221.282704061323</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>931.8655340243621</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>931.8655340243621</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>285.1031356539339</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>145.2351313103793</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>158.8724419039323</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9482,10 +9482,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>369.0893880493733</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>360.5026862907246</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>182.034074286795</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>38.86002301949898</v>
+        <v>223.6742649934479</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>306.1147370139961</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>169.2863157167183</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,25 +10907,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>176.7176547498451</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,19 +11141,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>29.47535963978191</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11378,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>62.91120742583806</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>212.5222831622566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>47.34285357095038</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>33.38685156731853</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,10 +23895,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>198.2073611470884</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>85.60545351775899</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>82.98990566424402</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>8.619950789879994</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24843,10 +24843,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>68.00967868100958</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>128.716530191666</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>192.3581855871768</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25551,25 +25551,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>185.3595606900912</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>167.9375160862781</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26025,16 +26025,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>263.5177648907915</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>776764.5424193956</v>
+        <v>776764.5424193958</v>
       </c>
     </row>
     <row r="11">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448199</v>
+      </c>
+      <c r="C2" t="n">
+        <v>636307.3716448195</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448196</v>
       </c>
-      <c r="C2" t="n">
-        <v>636307.3716448197</v>
-      </c>
-      <c r="D2" t="n">
-        <v>636307.3716448197</v>
-      </c>
       <c r="E2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="F2" t="n">
         <v>606095.0425934484</v>
       </c>
       <c r="G2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="H2" t="n">
+        <v>606095.0425934483</v>
+      </c>
+      <c r="I2" t="n">
+        <v>606095.0425934483</v>
+      </c>
+      <c r="J2" t="n">
+        <v>606095.0425934488</v>
+      </c>
+      <c r="K2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="L2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="M2" t="n">
         <v>606095.0425934485</v>
-      </c>
-      <c r="H2" t="n">
-        <v>606095.0425934484</v>
-      </c>
-      <c r="I2" t="n">
-        <v>606095.0425934488</v>
-      </c>
-      <c r="J2" t="n">
-        <v>606095.0425934483</v>
-      </c>
-      <c r="K2" t="n">
-        <v>606095.0425934481</v>
-      </c>
-      <c r="L2" t="n">
-        <v>606095.0425934487</v>
-      </c>
-      <c r="M2" t="n">
-        <v>606095.0425934487</v>
       </c>
       <c r="N2" t="n">
         <v>606095.0425934487</v>
       </c>
       <c r="O2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="P2" t="n">
         <v>606095.0425934484</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26438,25 +26438,25 @@
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.66962143904</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.66962143906</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.66962143914</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
         <v>15045.6696214391</v>
@@ -26475,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26490,7 +26490,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26499,19 +26499,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-193294.543884357</v>
+        <v>-193294.5438843567</v>
       </c>
       <c r="C6" t="n">
-        <v>396673.3353301877</v>
+        <v>396673.3353301875</v>
       </c>
       <c r="D6" t="n">
         <v>396673.3353301876</v>
       </c>
       <c r="E6" t="n">
-        <v>-26097.98945360309</v>
+        <v>-27072.58071332486</v>
       </c>
       <c r="F6" t="n">
-        <v>499062.0470232925</v>
+        <v>498087.4557635711</v>
       </c>
       <c r="G6" t="n">
-        <v>499062.0470232929</v>
+        <v>498087.4557635711</v>
       </c>
       <c r="H6" t="n">
-        <v>499062.0470232927</v>
+        <v>498087.455763571</v>
       </c>
       <c r="I6" t="n">
-        <v>499062.047023293</v>
+        <v>498087.455763571</v>
       </c>
       <c r="J6" t="n">
-        <v>322638.8278306996</v>
+        <v>321664.2365709785</v>
       </c>
       <c r="K6" t="n">
-        <v>499062.0470232924</v>
+        <v>498087.4557635711</v>
       </c>
       <c r="L6" t="n">
-        <v>499062.047023293</v>
+        <v>498087.4557635711</v>
       </c>
       <c r="M6" t="n">
-        <v>364261.0317894559</v>
+        <v>363286.440529734</v>
       </c>
       <c r="N6" t="n">
-        <v>499062.047023293</v>
+        <v>498087.4557635713</v>
       </c>
       <c r="O6" t="n">
-        <v>499062.0470232925</v>
+        <v>498087.4557635711</v>
       </c>
       <c r="P6" t="n">
-        <v>499062.0470232927</v>
+        <v>498087.4557635711</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26767,19 +26767,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="M3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="M3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>327.0653187258858</v>
+        <v>116.7497573142985</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>125.3564241629033</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>50.17791469221531</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>221.5269229679691</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>347.5522827329177</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,13 +27672,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>26.02192683660462</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>91.17502009344012</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>140.7788005928375</v>
+        <v>212.3910411555859</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28064,22 +28064,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>96.01048066168073</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>137.9754008447229</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29100,7 +29100,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29699,7 +29699,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-4.228482943101975e-12</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -30048,7 +30048,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-8.319358994805075e-13</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30516,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31846,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31855,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34786,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>534.3608406099581</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>233.2481640954534</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>536.1008625915819</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,19 +35965,19 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>441.2361441450404</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315246</v>
@@ -36126,7 +36126,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
@@ -36202,10 +36202,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>618.3470930053976</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36214,16 +36214,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>609.7603912467489</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36913,10 +36913,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>389.1274892183196</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36995,7 +36995,7 @@
         <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799243</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>189.4354616074382</v>
+        <v>374.2497035813871</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37393,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>588.4784392551043</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>257.2993485017925</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>487.1420318003114</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37861,19 +37861,19 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>180.0507982277211</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
         <v>207.0934149315246</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>213.4866460137773</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2855964.418426044</v>
+        <v>2860903.681275077</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>237.9332843063845</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>295.9408816142891</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -819,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>125.8721928563317</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>105.9929741495798</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>160.4034471042927</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>138.5650190213103</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8100533453327</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>81.39738722345926</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>48.28463004918658</v>
       </c>
       <c r="H8" t="n">
-        <v>111.5317316087713</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>156.1271626621473</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896919</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>143.2925104849745</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>262.5919994436146</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>115.5269768002176</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>145.9506086895018</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2061,13 +2061,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>146.185469167092</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>177.6778654977374</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385022</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>24.29718497126802</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>204.1291651532053</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X43" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4312,16 +4312,16 @@
         <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>477.919485916526</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="C4" t="n">
-        <v>477.919485916526</v>
+        <v>331.20325038051</v>
       </c>
       <c r="D4" t="n">
-        <v>477.919485916526</v>
+        <v>181.0866109681743</v>
       </c>
       <c r="E4" t="n">
-        <v>330.0063923341329</v>
+        <v>181.0866109681743</v>
       </c>
       <c r="F4" t="n">
-        <v>330.0063923341329</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>161.0065920724653</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y4" t="n">
-        <v>477.919485916526</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1894.539591564834</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="C5" t="n">
-        <v>1525.577074624423</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D5" t="n">
-        <v>1525.577074624423</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="W5" t="n">
-        <v>1894.539591564834</v>
+        <v>1782.1113712492</v>
       </c>
       <c r="X5" t="n">
-        <v>1894.539591564834</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y5" t="n">
-        <v>1894.539591564834</v>
+        <v>1268.680947310029</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4658,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351.9727148150933</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>293.9109374418335</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>293.9109374418335</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>293.9109374418335</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629041</v>
+        <v>444.0275768541693</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1704.527073573122</v>
+        <v>1626.717708340415</v>
       </c>
       <c r="C8" t="n">
-        <v>1335.56455663271</v>
+        <v>1257.755191400004</v>
       </c>
       <c r="D8" t="n">
-        <v>977.29885802596</v>
+        <v>899.4894927932532</v>
       </c>
       <c r="E8" t="n">
-        <v>591.5106054277157</v>
+        <v>513.7012401950089</v>
       </c>
       <c r="F8" t="n">
-        <v>180.5247006381082</v>
+        <v>102.7153354054014</v>
       </c>
       <c r="G8" t="n">
-        <v>166.6012965766991</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>2013.317548404537</v>
       </c>
       <c r="X8" t="n">
-        <v>1704.527073573122</v>
+        <v>2013.317548404537</v>
       </c>
       <c r="Y8" t="n">
-        <v>1704.527073573122</v>
+        <v>2013.317548404537</v>
       </c>
     </row>
     <row r="9">
@@ -4859,34 +4859,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036376</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
         <v>713.8062203571349</v>
@@ -4904,28 +4904,28 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>211.6471865296041</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5029,37 +5029,37 @@
         <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155902</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514097</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.627437207831</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1908.095276920732</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2187.63534213943</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2392.657822921639</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>434.3285960683721</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028587</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>1354.17636097712</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W13" t="n">
-        <v>1064.759190940159</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="X13" t="n">
-        <v>836.769640042142</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y13" t="n">
-        <v>615.9770608986119</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="14">
@@ -5275,37 +5275,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>213.9110074201016</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="C16" t="n">
-        <v>213.9110074201016</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D16" t="n">
-        <v>213.9110074201016</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E16" t="n">
-        <v>213.9110074201016</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>213.9110074201016</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>213.9110074201016</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,46 +5442,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799399</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471228</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.60808497467</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980067</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.08282758575</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557906</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>1244.231782352019</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>954.8146123150584</v>
       </c>
       <c r="X16" t="n">
-        <v>213.9110074201016</v>
+        <v>726.8250614170411</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.9110074201016</v>
+        <v>579.400204154918</v>
       </c>
     </row>
     <row r="17">
@@ -5494,67 +5494,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5740,64 +5740,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5849,10 +5849,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5986,10 +5986,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514085</v>
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6205,10 +6205,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6223,52 +6223,52 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6414,22 +6414,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
@@ -6451,64 +6451,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6651,22 +6651,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6727,22 +6727,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6782,25 +6782,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>634.0455001582214</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>880.8106280646855</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
         <v>488.1932370805469</v>
@@ -6934,7 +6934,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6946,28 +6946,28 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7004,28 +7004,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7128,19 +7128,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7174,28 +7174,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>121.7597025423748</v>
       </c>
       <c r="C40" t="n">
         <v>97.21709146028584</v>
@@ -7371,13 +7371,13 @@
         <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>303.4081673726145</v>
       </c>
     </row>
     <row r="41">
@@ -7390,40 +7390,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7593,22 +7593,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>675.007103038344</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>420.3226148324571</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>130.9054447954965</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
         <v>97.21709146028584</v>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,16 +7633,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7651,10 +7651,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7839,13 +7839,13 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
         <v>97.21709146028584</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>145.2351313103793</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119852</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9658,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720745</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>223.6742649934479</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>169.2863157167183</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>108.8451328388535</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>23.93099889297645</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,7 +23670,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>33.38685156731853</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23706,10 +23706,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>72.63404466259297</v>
       </c>
     </row>
     <row r="17">
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>140.337529169499</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="23">
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>108.8451328388536</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>142.9496361273598</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>82.39383318338565</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X43" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>776764.5424193958</v>
+        <v>776764.5424193956</v>
       </c>
     </row>
     <row r="6">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>776764.5424193958</v>
+        <v>776764.5424193956</v>
       </c>
     </row>
     <row r="15">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448196</v>
+      </c>
+      <c r="C2" t="n">
         <v>636307.3716448199</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>636307.3716448195</v>
       </c>
-      <c r="D2" t="n">
-        <v>636307.3716448196</v>
-      </c>
       <c r="E2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="F2" t="n">
+        <v>606095.0425934489</v>
+      </c>
+      <c r="G2" t="n">
         <v>606095.0425934487</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>606095.0425934484</v>
       </c>
-      <c r="G2" t="n">
-        <v>606095.0425934484</v>
-      </c>
-      <c r="H2" t="n">
-        <v>606095.0425934483</v>
-      </c>
       <c r="I2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934482</v>
       </c>
       <c r="J2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="K2" t="n">
         <v>606095.0425934484</v>
       </c>
       <c r="L2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="M2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="N2" t="n">
+        <v>606095.0425934483</v>
+      </c>
+      <c r="O2" t="n">
         <v>606095.0425934487</v>
-      </c>
-      <c r="O2" t="n">
-        <v>606095.0425934484</v>
       </c>
       <c r="P2" t="n">
         <v>606095.0425934484</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26441,7 +26441,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="K4" t="n">
         <v>15045.6696214391</v>
@@ -26481,34 +26481,34 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-193294.5438843567</v>
+        <v>-193294.5438843569</v>
       </c>
       <c r="C6" t="n">
+        <v>396673.3353301878</v>
+      </c>
+      <c r="D6" t="n">
         <v>396673.3353301875</v>
       </c>
-      <c r="D6" t="n">
-        <v>396673.3353301876</v>
-      </c>
       <c r="E6" t="n">
-        <v>-27072.58071332486</v>
+        <v>-26195.44857957574</v>
       </c>
       <c r="F6" t="n">
-        <v>498087.4557635711</v>
+        <v>498964.587897321</v>
       </c>
       <c r="G6" t="n">
-        <v>498087.4557635711</v>
+        <v>498964.5878973208</v>
       </c>
       <c r="H6" t="n">
-        <v>498087.455763571</v>
+        <v>498964.5878973206</v>
       </c>
       <c r="I6" t="n">
-        <v>498087.455763571</v>
+        <v>498964.5878973203</v>
       </c>
       <c r="J6" t="n">
-        <v>321664.2365709785</v>
+        <v>322541.3687047278</v>
       </c>
       <c r="K6" t="n">
-        <v>498087.4557635711</v>
+        <v>498964.5878973206</v>
       </c>
       <c r="L6" t="n">
-        <v>498087.4557635711</v>
+        <v>498964.5878973208</v>
       </c>
       <c r="M6" t="n">
-        <v>363286.440529734</v>
+        <v>364163.5726634835</v>
       </c>
       <c r="N6" t="n">
-        <v>498087.4557635713</v>
+        <v>498964.5878973205</v>
       </c>
       <c r="O6" t="n">
-        <v>498087.4557635711</v>
+        <v>498964.5878973208</v>
       </c>
       <c r="P6" t="n">
-        <v>498087.4557635711</v>
+        <v>498964.5878973206</v>
       </c>
     </row>
   </sheetData>
@@ -26743,40 +26743,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541003</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>116.7497573142985</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>85.98948845797264</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27539,22 +27539,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>19.54885516659955</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>50.17791469221531</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>221.5269229679691</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>247.6729196347433</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.02192683660462</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27782,22 +27782,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>85.91241503559165</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>365.4995399716084</v>
       </c>
       <c r="H8" t="n">
-        <v>212.3910411555859</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>96.01048066168073</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28514,7 +28514,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>3.487817442267745e-12</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -29337,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35497,19 +35497,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>233.2481640954534</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35734,16 +35734,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.214186879932</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,16 +35886,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O17" t="n">
         <v>713.1546070951472</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,22 +36208,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36378,10 +36378,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37150,7 +37150,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>374.2497035813871</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>257.2993485017925</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
